--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25760176135410706</v>
+        <v>0.25804120632374827</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29058757935304796</v>
+        <v>0.29107220032381076</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0070363749921037912</v>
+        <v>-0.0070308893799727289</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0055332290396502082</v>
+        <v>-0.0055289128551055779</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0025636996358622717</v>
+        <v>0.0025544549896781158</v>
       </c>
       <c r="G3" s="0">
-        <v>0.013288175548690027</v>
+        <v>0.013272171894698018</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0016170912497176918</v>
+        <v>0.0016166442117075605</v>
       </c>
       <c r="I3" s="0">
-        <v>0.027063271369885945</v>
+        <v>0.027124340956070508</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0010231842265389646</v>
+        <v>0.0010231841829865806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34168416713142519</v>
+        <v>0.34210604907988046</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0051005106021195564</v>
+        <v>-0.0052491075732205034</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0041025539861290787</v>
+        <v>-0.004084146787174745</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0010677120860513121</v>
+        <v>-0.0010634437622742685</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00036781124957493885</v>
+        <v>0.00036818101149989346</v>
       </c>
       <c r="I4" s="0">
-        <v>0.051898679108684377</v>
+        <v>0.051745615784920082</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0083172955929753292</v>
+        <v>0.0085331637924820555</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00078357850144250563</v>
+        <v>0.00078358628983721257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2558114191501889</v>
+        <v>0.25642911009445751</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.041266260609482401</v>
+        <v>-0.040830782317864613</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.018723979218338849</v>
+        <v>-0.018900545005694602</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.006226330302027171</v>
+        <v>-0.0063805924197713332</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0023448136961431274</v>
+        <v>0.002344495994048778</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.041677976661794729</v>
+        <v>-0.041590088384049546</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00046315250471696526</v>
+        <v>-0.00046359466700946915</v>
       </c>
       <c r="I5" s="0">
-        <v>0.017494538145546319</v>
+        <v>0.017498580873581492</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0026455994734344013</v>
+        <v>0.0026455869413363753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.48654892037774233</v>
+        <v>0.48880674462640511</v>
       </c>
       <c r="C6" s="0">
-        <v>0.19981781302333465</v>
+        <v>0.20242070769811599</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0043433324589588354</v>
+        <v>0.0043335135994191729</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00098128395795209341</v>
+        <v>-0.0009693709630753624</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00061284052214569682</v>
+        <v>0.00062417072157253356</v>
       </c>
       <c r="I6" s="0">
-        <v>0.012282870496983915</v>
+        <v>0.011306749905871945</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.014661928684082448</v>
+        <v>0.014661863570043343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.4974247276033098</v>
+        <v>0.49809207479104517</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.002160574481879703</v>
+        <v>0.0010256535008289856</v>
       </c>
       <c r="E7" s="0">
-        <v>0.005824091230078288</v>
+        <v>0.0054618043612769934</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0061346118806435345</v>
+        <v>-0.0061066775216144726</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0098111763380168623</v>
+        <v>0.009777118530564035</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0061194203050475215</v>
+        <v>-0.006206597785794429</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0053339973612836489</v>
+        <v>0.0053340290793789658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.44048209135329053</v>
+        <v>0.44124557848951679</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0031506402962112358</v>
+        <v>0.0025066902745149514</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.014064562556766655</v>
+        <v>-0.014061153321381997</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.015941167848605883</v>
+        <v>-0.015939347429725272</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00076305650617931084</v>
+        <v>0.00076662675482462844</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.035044649332864823</v>
+        <v>-0.034313408304005852</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0041940466858275682</v>
+        <v>0.0041940957242451726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10211307455995158</v>
+        <v>0.10030047260531566</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.26898425433658013</v>
+        <v>-0.27138402435828202</v>
       </c>
       <c r="E9" s="0">
-        <v>0.018345450805707039</v>
+        <v>0.018309332564410283</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.047856276602310864</v>
+        <v>-0.048282176061056413</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.036536549728505653</v>
+        <v>-0.036207747347287121</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0042838384726769868</v>
+        <v>-0.0043108226372476927</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0024731059194219511</v>
+        <v>0.0024569410084064355</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0015266543783942765</v>
+        <v>-0.0015266090531446119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.25716573129215925</v>
+        <v>0.25999473276309143</v>
       </c>
       <c r="C10" s="0">
-        <v>0.12414507724684001</v>
+        <v>0.12911959538649304</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0082453870506092129</v>
+        <v>0.0082654208372140783</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0037687522617669651</v>
+        <v>-0.0038072443933196967</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0010514541025746845</v>
+        <v>-0.0010514597265328714</v>
       </c>
       <c r="I10" s="0">
-        <v>0.048339929109616944</v>
+        <v>0.048019279308844684</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022719816747181817</v>
+        <v>-0.0022658998799541114</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.018585548635798699</v>
+        <v>-0.018585431374969319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.40488817421084722</v>
+        <v>0.40763875549922352</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.41518593347688737</v>
+        <v>0.41364237324260072</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.12662298220010829</v>
+        <v>-0.12579169029692622</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.07253712267971002</v>
+        <v>-0.07187081884052611</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.091664906777535957</v>
+        <v>-0.090992135750998335</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.011428453979361866</v>
+        <v>-0.011361190656616695</v>
       </c>
       <c r="I11" s="0">
-        <v>0.087655384456841942</v>
+        <v>0.086882865545951704</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.052865409378325234</v>
+        <v>-0.05286538050735301</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.2083749651949483</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.14065816779661705</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0098818988909488772</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0015113042535228115</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.0010654266992884281</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.041393819379655881</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0047531732842421293</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25804120632374827</v>
+        <v>0.25707393718393129</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29107220032381076</v>
+        <v>0.29002550184912546</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0070308893799727289</v>
+        <v>-0.007183752834100215</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0055289128551055779</v>
+        <v>-0.0054881697901033848</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0025544549896781158</v>
+        <v>0.0025833163913726678</v>
       </c>
       <c r="G3" s="0">
-        <v>0.013272171894698018</v>
+        <v>0.013258434594933026</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0016166442117075605</v>
+        <v>0.0016248162671851727</v>
       </c>
       <c r="I3" s="0">
-        <v>0.027124340956070508</v>
+        <v>0.027133735915465057</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0010231841829865806</v>
+        <v>0.0010231841204418335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34210604907988046</v>
+        <v>0.34063545986137478</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0052491075732205034</v>
+        <v>-0.0064589696534698166</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.004084146787174745</v>
+        <v>-0.0040860746692722612</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0010634437622742685</v>
+        <v>-0.0010610973814828575</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00036818101149989346</v>
+        <v>0.00035952556231092262</v>
       </c>
       <c r="I4" s="0">
-        <v>0.051745615784920082</v>
+        <v>0.052423208170691793</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0085331637924820555</v>
+        <v>0.0086497458383126835</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00078358628983721257</v>
+        <v>0.0007836201451588698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.25642911009445751</v>
+        <v>0.25681698822829546</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.040830782317864613</v>
+        <v>-0.039794657192137872</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.018900545005694602</v>
+        <v>-0.018414399601024634</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0063805924197713332</v>
+        <v>-0.0062533901805752372</v>
       </c>
       <c r="F5" s="0">
-        <v>0.002344495994048778</v>
+        <v>0.0025329066629550976</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.041590088384049546</v>
+        <v>-0.041612108367512904</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00046359466700946915</v>
+        <v>-0.00046602520960772062</v>
       </c>
       <c r="I5" s="0">
-        <v>0.017498580873581492</v>
+        <v>0.017543626648239469</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0026455869413363753</v>
+        <v>0.0026455756065844604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.48880674462640511</v>
+        <v>0.49051314730129197</v>
       </c>
       <c r="C6" s="0">
-        <v>0.20242070769811599</v>
+        <v>0.20448874786208981</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0043335135994191729</v>
+        <v>0.0043527391005637921</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0009693709630753624</v>
+        <v>-0.00096191193360468594</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00062417072157253356</v>
+        <v>0.00065064028218991495</v>
       </c>
       <c r="I6" s="0">
-        <v>0.011306749905871945</v>
+        <v>0.010504053591778313</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.014661863570043343</v>
+        <v>0.014661890169979319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.49809207479104517</v>
+        <v>0.50021605473540343</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0010256535008289856</v>
+        <v>0.0019968045922186071</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0054618043612769934</v>
+        <v>0.0048567780972049238</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0061066775216144726</v>
+        <v>-0.0060438915885480558</v>
       </c>
       <c r="G7" s="0">
-        <v>0.009777118530564035</v>
+        <v>0.0097718938463722052</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.006206597785794429</v>
+        <v>-0.0062127037985695507</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0053340290793789658</v>
+        <v>0.0053340262854333353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.44124557848951679</v>
+        <v>0.43066235654456431</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0025066902745149514</v>
+        <v>-0.010825352511962601</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.014061153321381997</v>
+        <v>-0.014156732540636317</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.015939347429725272</v>
+        <v>-0.015959967031414207</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00076662675482462844</v>
+        <v>0.0007556116177778213</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.034313408304005852</v>
+        <v>-0.033561459923969847</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0041940957242451726</v>
+        <v>0.0041942021993660594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10030047260531566</v>
+        <v>0.093076167106568047</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.27138402435828202</v>
+        <v>-0.26813339655100821</v>
       </c>
       <c r="E9" s="0">
-        <v>0.018309332564410283</v>
+        <v>0.018291165469735953</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.048282176061056413</v>
+        <v>-0.047833083599592992</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.036207747347287121</v>
+        <v>-0.036542427814977754</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0043108226372476927</v>
+        <v>-0.0042995913902897764</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0024569410084064355</v>
+        <v>0.0024578282803111445</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0015266090531446119</v>
+        <v>-0.0015266838321745801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.25999473276309143</v>
+        <v>0.24995082676965183</v>
       </c>
       <c r="C10" s="0">
-        <v>0.12911959538649304</v>
+        <v>0.12541022462936055</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0082654208372140783</v>
+        <v>0.0082154140687732986</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0038072443933196967</v>
+        <v>-0.0036964054036341364</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0010514597265328714</v>
+        <v>-0.0010527667945176866</v>
       </c>
       <c r="I10" s="0">
-        <v>0.048019279308844684</v>
+        <v>0.048785865843642445</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022658998799541114</v>
+        <v>-0.0022021466967790263</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.018585431374969319</v>
+        <v>-0.018585525983761675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.40763875549922352</v>
+        <v>0.4047521342197305</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.41364237324260072</v>
+        <v>0.41708912265355214</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.12579169029692622</v>
+        <v>-0.12537871292343553</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.07187081884052611</v>
+        <v>-0.069815392448560373</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.090992135750998335</v>
+        <v>-0.09109492326969082</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.011361190656616695</v>
+        <v>-0.011255321778264346</v>
       </c>
       <c r="I11" s="0">
-        <v>0.086882865545951704</v>
+        <v>0.088121976326949986</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.05286538050735301</v>
+        <v>-0.052865441110472339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.2083749651949483</v>
+        <v>0.075796285879536879</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.14065816779661705</v>
+        <v>-0.16702776043010448</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0098818988909488772</v>
+        <v>-0.0076792787645024443</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0015113042535228115</v>
+        <v>-0.025359682882901708</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.0010654266992884281</v>
+        <v>-0.013098767904440478</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.041393819379655881</v>
+        <v>-0.11323256741910928</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0047531732842421293</v>
+        <v>-0.0025577909391352738</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.087786654513750867</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.27384687746946745</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.14209256655558303</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.20817011106108138</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.013076861386442621</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0087860232395307724</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0049572331682366175</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.2028540501404463</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.067620192234008114</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.094798345017368016</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.012914874250993911</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0061696543454708317</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00011774128584225865</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.066903923323101563</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00056753959865471493</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr10_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.25707393718393129</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29002550184912546</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.34063545986137478</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.25681698822829546</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.49051314730129197</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.50021605473540343</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.43066235654456431</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.093076167106568047</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.24995082676965183</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.4047521342197305</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.075796285879536879</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.087786654513750867</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.067620192234008114</v>
+        <v>-0.082382685459104155</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.094798345017368016</v>
+        <v>-0.077889133712766137</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.012914874250993911</v>
+        <v>0.012460900723752649</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0061696543454708317</v>
+        <v>-0.0096104687923206349</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00011774128584225865</v>
+        <v>-0.0012118229704121235</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.066903923323101563</v>
+        <v>-0.092301657661103528</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00056753959865471493</v>
+        <v>-0.0016171575600052446</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.43347809565525558</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.23723641727713984</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.008951940341451612</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.036052386921396243</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0077793763652281604</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.13318006313372804</v>
       </c>
     </row>
   </sheetData>
